--- a/TestDataXls/Faq.xlsx
+++ b/TestDataXls/Faq.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E49E5E8-9668-4BE3-B319-423E56CF87BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F4CDC7-28DE-48D5-838D-4CC8B3B50DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>password</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Mvg math 3</t>
+  </si>
+  <si>
+    <t>tutor54@nkt.com</t>
   </si>
 </sst>
 </file>
@@ -159,14 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -546,7 +548,7 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
@@ -569,7 +571,7 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G2">
@@ -589,7 +591,7 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3">
@@ -612,7 +614,7 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4">
@@ -635,7 +637,7 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G5">
@@ -658,7 +660,7 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G6">
@@ -676,12 +678,12 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G7">
@@ -698,10 +700,9 @@
     <hyperlink ref="D3:D6" r:id="rId6" display="tutor36@nkt.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{71A68161-C99A-4723-BC44-C29A87B056C5}"/>
     <hyperlink ref="E7" r:id="rId8" xr:uid="{12D84B00-6A3C-4045-A1D0-11E691F91E6E}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{48686E4D-1929-46F1-8A86-CB0178D77FFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/TestDataXls/Faq.xlsx
+++ b/TestDataXls/Faq.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F4CDC7-28DE-48D5-838D-4CC8B3B50DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D67A5F-3F35-4E53-B371-CCF8D7315AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>password</t>
   </si>
@@ -108,10 +108,13 @@
     <t xml:space="preserve"> Mvg Tamil   </t>
   </si>
   <si>
-    <t>Mvg math 3</t>
-  </si>
-  <si>
-    <t>tutor54@nkt.com</t>
+    <t>srinivasesaivanan6324@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Cello Group</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,14 +680,14 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -699,7 +702,7 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="D3:D6" r:id="rId6" display="tutor36@nkt.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{71A68161-C99A-4723-BC44-C29A87B056C5}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{12D84B00-6A3C-4045-A1D0-11E691F91E6E}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{FBAF9832-2909-4AD3-B315-1A857FF43461}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/TestDataXls/Faq.xlsx
+++ b/TestDataXls/Faq.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D67A5F-3F35-4E53-B371-CCF8D7315AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65DDDFE-1246-4803-9E81-EB36C2053EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>password</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Bharat mvg</t>
   </si>
   <si>
-    <t>Bharat mvi</t>
-  </si>
-  <si>
     <t>tutor36@nkt.com</t>
   </si>
   <si>
@@ -114,7 +111,13 @@
     <t>Test@1234</t>
   </si>
   <si>
-    <t>Cello Group</t>
+    <t>Cello Group1</t>
+  </si>
+  <si>
+    <t>tutor53@nkt.com</t>
+  </si>
+  <si>
+    <t>Pencil 5</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,19 +566,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -589,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -606,19 +609,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -629,13 +632,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -652,19 +655,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -675,19 +678,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -703,9 +706,10 @@
     <hyperlink ref="D3:D6" r:id="rId6" display="tutor36@nkt.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{71A68161-C99A-4723-BC44-C29A87B056C5}"/>
     <hyperlink ref="E7" r:id="rId8" xr:uid="{FBAF9832-2909-4AD3-B315-1A857FF43461}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{3ED29E5A-60CF-4C60-99F4-74B912A578C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -731,52 +735,52 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">

--- a/TestDataXls/Faq.xlsx
+++ b/TestDataXls/Faq.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65DDDFE-1246-4803-9E81-EB36C2053EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F017C-DC29-47D4-8D01-A45A6CD99C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>tutor53@nkt.com</t>
   </si>
   <si>
-    <t>Pencil 5</t>
+    <t>Steel month variable</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestDataXls/Faq.xlsx
+++ b/TestDataXls/Faq.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F017C-DC29-47D4-8D01-A45A6CD99C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427370B4-AE62-4A12-8294-EBDC58EA6B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>password</t>
   </si>
@@ -105,19 +105,13 @@
     <t xml:space="preserve"> Mvg Tamil   </t>
   </si>
   <si>
-    <t>srinivasesaivanan6324@gmail.com</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>Cello Group1</t>
-  </si>
-  <si>
     <t>tutor53@nkt.com</t>
   </si>
   <si>
-    <t>Steel month variable</t>
+    <t>Mf class 1</t>
+  </si>
+  <si>
+    <t>Mv class 2</t>
   </si>
 </sst>
 </file>
@@ -518,7 +512,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,13 +655,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -678,16 +672,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
@@ -702,14 +696,15 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D3:D6" r:id="rId6" display="tutor36@nkt.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{71A68161-C99A-4723-BC44-C29A87B056C5}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{FBAF9832-2909-4AD3-B315-1A857FF43461}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{3ED29E5A-60CF-4C60-99F4-74B912A578C9}"/>
+    <hyperlink ref="D3:D6" r:id="rId5" display="tutor36@nkt.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{71A68161-C99A-4723-BC44-C29A87B056C5}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{B115B74C-AA1B-414F-A694-E6E43ED4DFA9}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{848A2643-F1B5-4BB6-93AE-7E20788F414F}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{42130E15-03CC-4FBA-9C04-2A8D8C9F6660}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{7450F6D4-7730-4727-BCAB-E60A87CA83F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/TestDataXls/Faq.xlsx
+++ b/TestDataXls/Faq.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427370B4-AE62-4A12-8294-EBDC58EA6B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F81DC-02A8-447B-A44B-C70F147AB037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
     <t>Mf class 1</t>
   </si>
   <si>
-    <t>Mv class 2</t>
+    <t>PHP session 4</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>

--- a/TestDataXls/Faq.xlsx
+++ b/TestDataXls/Faq.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F81DC-02A8-447B-A44B-C70F147AB037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F2DEC3-28F5-47BA-B7A0-7AB1E8EAFEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>password</t>
   </si>
@@ -111,7 +111,34 @@
     <t>Mf class 1</t>
   </si>
   <si>
-    <t>PHP session 4</t>
+    <t>Java session 8</t>
+  </si>
+  <si>
+    <t>tutor54@nkt.com</t>
+  </si>
+  <si>
+    <t>paint sess 1</t>
+  </si>
+  <si>
+    <t>paint fix 1</t>
+  </si>
+  <si>
+    <t>paint var 1</t>
+  </si>
+  <si>
+    <t>paint fix 1 ind</t>
+  </si>
+  <si>
+    <t>paint var 1 ind</t>
+  </si>
+  <si>
+    <t>srinivasesaivanan6324@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>clarinet session 4 multi</t>
   </si>
 </sst>
 </file>
@@ -509,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -687,6 +714,167 @@
         <v>31</v>
       </c>
       <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
     </row>
@@ -702,9 +890,22 @@
     <hyperlink ref="D6" r:id="rId8" xr:uid="{848A2643-F1B5-4BB6-93AE-7E20788F414F}"/>
     <hyperlink ref="D7" r:id="rId9" xr:uid="{42130E15-03CC-4FBA-9C04-2A8D8C9F6660}"/>
     <hyperlink ref="E7" r:id="rId10" xr:uid="{7450F6D4-7730-4727-BCAB-E60A87CA83F3}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{4A5580EC-259C-4942-939F-9E100227080E}"/>
+    <hyperlink ref="E8" r:id="rId12" xr:uid="{2C5A19E4-0B34-4220-8957-46D020E902D3}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{E97EA586-1968-470E-9C4C-A37EB0AFA148}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{41A88FF1-8412-4FB5-87B5-3D7B8345B895}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{81CF06AE-AE5F-4F23-A9BC-EC84941C84FE}"/>
+    <hyperlink ref="E10" r:id="rId16" xr:uid="{D9F6F41F-7677-47DD-9A1F-64F9B11A6971}"/>
+    <hyperlink ref="E11" r:id="rId17" xr:uid="{B8F8D3A3-DBC9-407D-8BB9-1EBDB28952C9}"/>
+    <hyperlink ref="D12" r:id="rId18" xr:uid="{CF6FFB0C-1E9E-44B3-AC10-536548D4DDE0}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{2DFBA57D-38E7-485E-9B36-1B2502B8A023}"/>
+    <hyperlink ref="D13" r:id="rId20" xr:uid="{4F5639AF-2D20-4AA2-9A15-23C28FB182E8}"/>
+    <hyperlink ref="E13" r:id="rId21" xr:uid="{C5F453DE-1480-430E-980C-64802502D9F2}"/>
+    <hyperlink ref="D14" r:id="rId22" xr:uid="{763DCF47-E9BC-4AFE-99D7-900EF8473F9D}"/>
+    <hyperlink ref="E14" r:id="rId23" xr:uid="{727D1F57-86BA-4BFF-9CF8-F3D921AB740F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/TestDataXls/Faq.xlsx
+++ b/TestDataXls/Faq.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F2DEC3-28F5-47BA-B7A0-7AB1E8EAFEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9112C2F-A8A3-4D79-8253-9A927CE9547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faq" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>password</t>
   </si>
@@ -126,26 +126,23 @@
     <t>paint var 1</t>
   </si>
   <si>
-    <t>paint fix 1 ind</t>
-  </si>
-  <si>
-    <t>paint var 1 ind</t>
-  </si>
-  <si>
-    <t>srinivasesaivanan6324@gmail.com</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>clarinet session 4 multi</t>
+    <t>tutor60@nkt.com</t>
+  </si>
+  <si>
+    <t>Pilot sess 6</t>
+  </si>
+  <si>
+    <t>Pilot MV 6</t>
+  </si>
+  <si>
+    <t>Pilot MF 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +163,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -539,7 +542,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,19 +794,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>38</v>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -820,13 +823,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -837,19 +840,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -879,6 +882,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -896,16 +900,14 @@
     <hyperlink ref="E9" r:id="rId14" xr:uid="{41A88FF1-8412-4FB5-87B5-3D7B8345B895}"/>
     <hyperlink ref="D10" r:id="rId15" xr:uid="{81CF06AE-AE5F-4F23-A9BC-EC84941C84FE}"/>
     <hyperlink ref="E10" r:id="rId16" xr:uid="{D9F6F41F-7677-47DD-9A1F-64F9B11A6971}"/>
-    <hyperlink ref="E11" r:id="rId17" xr:uid="{B8F8D3A3-DBC9-407D-8BB9-1EBDB28952C9}"/>
-    <hyperlink ref="D12" r:id="rId18" xr:uid="{CF6FFB0C-1E9E-44B3-AC10-536548D4DDE0}"/>
-    <hyperlink ref="E12" r:id="rId19" xr:uid="{2DFBA57D-38E7-485E-9B36-1B2502B8A023}"/>
-    <hyperlink ref="D13" r:id="rId20" xr:uid="{4F5639AF-2D20-4AA2-9A15-23C28FB182E8}"/>
-    <hyperlink ref="E13" r:id="rId21" xr:uid="{C5F453DE-1480-430E-980C-64802502D9F2}"/>
-    <hyperlink ref="D14" r:id="rId22" xr:uid="{763DCF47-E9BC-4AFE-99D7-900EF8473F9D}"/>
-    <hyperlink ref="E14" r:id="rId23" xr:uid="{727D1F57-86BA-4BFF-9CF8-F3D921AB740F}"/>
+    <hyperlink ref="D14" r:id="rId17" xr:uid="{763DCF47-E9BC-4AFE-99D7-900EF8473F9D}"/>
+    <hyperlink ref="E14" r:id="rId18" xr:uid="{727D1F57-86BA-4BFF-9CF8-F3D921AB740F}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{768D88E2-B693-4FE1-8ECA-FFA274F688BB}"/>
+    <hyperlink ref="D12:D13" r:id="rId20" display="tutor60@nkt.com" xr:uid="{A6885EF2-E98D-45CC-8667-6F0D78466555}"/>
+    <hyperlink ref="E11:E13" r:id="rId21" display="Admin@123" xr:uid="{1776F232-99F6-41A9-990F-0BE1296677D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/TestDataXls/Faq.xlsx
+++ b/TestDataXls/Faq.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9112C2F-A8A3-4D79-8253-9A927CE9547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9735FBA4-175B-4FA8-B3F0-7444220A28C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
     <t>Pilot MV 6</t>
   </si>
   <si>
-    <t>Pilot MF 6</t>
+    <t>Java test 10</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -905,9 +905,10 @@
     <hyperlink ref="D11" r:id="rId19" xr:uid="{768D88E2-B693-4FE1-8ECA-FFA274F688BB}"/>
     <hyperlink ref="D12:D13" r:id="rId20" display="tutor60@nkt.com" xr:uid="{A6885EF2-E98D-45CC-8667-6F0D78466555}"/>
     <hyperlink ref="E11:E13" r:id="rId21" display="Admin@123" xr:uid="{1776F232-99F6-41A9-990F-0BE1296677D5}"/>
+    <hyperlink ref="D13" r:id="rId22" xr:uid="{B2B699B1-2936-49CB-A768-4839DB3A0F08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
